--- a/bugReport.xlsx
+++ b/bugReport.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Category</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>Screenshot</t>
-  </si>
-  <si>
-    <t>www.example.com/screenshot123</t>
   </si>
   <si>
     <t>Environment</t>
@@ -176,7 +173,7 @@
   <fonts count="5">
     <font>
       <sz val="10.000000"/>
-      <color indexed="64"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -222,38 +219,38 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="none"/>
       <bottom style="none"/>
@@ -261,14 +258,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="none"/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
@@ -358,7 +355,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId1"/>
-        <a:srcRect l="-1491" t="55200" r="3332" b="2746"/>
+        <a:srcRect l="-1491" t="55200" r="3331" b="2745"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -375,12 +372,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>46181</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>320852</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>14430</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>10650</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3446318" cy="1286737"/>
+    <xdr:ext cx="3446317" cy="1286736"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="378729966" name=""/>
@@ -394,7 +391,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="0" flipV="0">
-          <a:off x="12532590" y="2162352"/>
+          <a:off x="8639847" y="2180234"/>
           <a:ext cx="3446318" cy="1286737"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -941,7 +938,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="K11" zoomScale="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="F1" zoomScale="100" workbookViewId="0">
       <selection activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -951,6 +948,7 @@
     <col customWidth="1" min="2" max="2" width="21.140625"/>
     <col customWidth="1" min="3" max="3" width="57.28515625"/>
     <col customWidth="1" min="4" max="4" width="8.42578125"/>
+    <col customWidth="1" min="7" max="7" width="51.8515625"/>
     <col customWidth="1" min="11" max="11" width="53.57421875"/>
     <col customWidth="1" min="15" max="15" width="48.8515625"/>
   </cols>
@@ -975,18 +973,9 @@
       <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="3"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" ht="26.100000000000001" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -1005,20 +994,11 @@
         <v>4</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="7"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
     </row>
     <row r="3" ht="26.100000000000001" customHeight="1">
       <c r="A3" s="8"/>
@@ -1033,18 +1013,11 @@
         <v>7</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="7"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="4" ht="26.100000000000001" customHeight="1">
       <c r="A4" s="8"/>
@@ -1061,16 +1034,9 @@
       <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="7"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" ht="26.100000000000001" customHeight="1">
       <c r="A5" s="10"/>
@@ -1087,16 +1053,9 @@
       <c r="G5" s="11">
         <v>45450</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="11">
-        <v>45450</v>
-      </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="11"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="11"/>
     </row>
     <row r="6" ht="26.100000000000001" customHeight="1">
       <c r="A6" s="5" t="s">
@@ -1115,20 +1074,11 @@
         <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="7"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" ht="26.100000000000001" customHeight="1">
       <c r="A7" s="8"/>
@@ -1143,18 +1093,11 @@
         <v>17</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="14"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" ht="101.5" customHeight="1">
       <c r="A8" s="10"/>
@@ -1166,327 +1109,235 @@
       <c r="F8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="G8" s="15"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="6"/>
       <c r="K8" s="15"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="15"/>
     </row>
     <row r="9" ht="26.100000000000001" customHeight="1">
       <c r="A9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="E9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="7"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" ht="26.100000000000001" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="7"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" ht="26.100000000000001" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" s="12"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="7"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" ht="26.100000000000001" customHeight="1">
       <c r="A12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="E12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="7"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" ht="26.100000000000001" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M13" s="9"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="7"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" ht="26.100000000000001" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M14" s="9"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="7"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" ht="26.100000000000001" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M15" s="12"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="7"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" ht="26.100000000000001" customHeight="1">
       <c r="A16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="E16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="7"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="7"/>
     </row>
     <row r="17" ht="26.100000000000001" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M17" s="9"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="7"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="7"/>
     </row>
     <row r="18" ht="26.100000000000001" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M18" s="12"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="I18" s="12"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" ht="26.100000000000001" customHeight="1">
       <c r="A19" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M19" s="16"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" ht="12.75">
       <c r="C20" s="17"/>
@@ -4439,32 +4290,26 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C19"/>
-  <mergeCells count="20">
+  <mergeCells count="15">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="I2:I5"/>
-    <mergeCell ref="M2:M5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="I6:I8"/>
-    <mergeCell ref="M6:M8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="E9:E11"/>
     <mergeCell ref="I9:I11"/>
-    <mergeCell ref="M9:M11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="E12:E15"/>
     <mergeCell ref="I12:I15"/>
-    <mergeCell ref="M12:M15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="E16:E18"/>
     <mergeCell ref="I16:I18"/>
-    <mergeCell ref="M16:M18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C7"/>
-    <hyperlink r:id="rId1" ref="G7"/>
-    <hyperlink r:id="rId2" ref="K7"/>
+    <hyperlink r:id="rId2" ref="G7"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
